--- a/distance_data.xlsx
+++ b/distance_data.xlsx
@@ -2,28 +2,76 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="4" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="turbines15_vehicles2_1452_0901" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="turbines15_vehicles2_1635_0901" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="turbines15_vehicles2_1637_0901" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="turbines15_vehicles2_1646_0901" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="turbines15_vehicles2_1651_0901" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="turbines15_vehicles2_1127_0902" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="turbines15_vehicles2_1712_0902" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="turbines15_vehicles2_1946_0902" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="turbines15_vehicles2_1950_0902" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="turbines15_vehicles2_1952_0902" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <color rgb="FFCCCCCC"/>
+      <sz val="8"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <color rgb="FF9CDCFE"/>
+      <sz val="8"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <color rgb="FFD4D4D4"/>
+      <sz val="8"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <color rgb="FFB5CEA8"/>
+      <sz val="8"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <color rgb="FF6A9955"/>
+      <sz val="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -37,12 +85,42 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -55,14 +133,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -425,7 +512,920 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vehicle ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Turbine Inspected</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Distance so Far</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>AUV_ID</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Distance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>240</v>
+      </c>
+      <c r="D2" t="n">
+        <v>57.41227281852916</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>304</v>
+      </c>
+      <c r="D3" t="n">
+        <v>93.48099772705845</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>991</v>
+      </c>
+      <c r="D4" t="n">
+        <v>101.2785268083428</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>992</v>
+      </c>
+      <c r="D5" t="n">
+        <v>154.9860446604018</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1191</v>
+      </c>
+      <c r="D6" t="n">
+        <v>207.333617913737</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1221</v>
+      </c>
+      <c r="D7" t="n">
+        <v>149.408557604664</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1890</v>
+      </c>
+      <c r="D8" t="n">
+        <v>190.2692862901511</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1893</v>
+      </c>
+      <c r="D9" t="n">
+        <v>241.3764022056494</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>12</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2090</v>
+      </c>
+      <c r="D10" t="n">
+        <v>226.1109928850559</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2109</v>
+      </c>
+      <c r="D11" t="n">
+        <v>299.0117174417745</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2790</v>
+      </c>
+      <c r="D12" t="n">
+        <v>288.4698674540288</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>14</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2792</v>
+      </c>
+      <c r="D13" t="n">
+        <v>355.3647465689565</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2987</v>
+      </c>
+      <c r="D14" t="n">
+        <v>329.2718208834286</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3691</v>
+      </c>
+      <c r="D15" t="n">
+        <v>378.4750567869936</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3693</v>
+      </c>
+      <c r="D16" t="n">
+        <v>450.7913165842862</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3891</v>
+      </c>
+      <c r="D17" t="n">
+        <v>407.0305155768471</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3908</v>
+      </c>
+      <c r="D18" t="n">
+        <v>509.083409547903</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5490</v>
+      </c>
+      <c r="D19" t="n">
+        <v>439.859068764236</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5492</v>
+      </c>
+      <c r="D20" t="n">
+        <v>557.3698300797259</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5698</v>
+      </c>
+      <c r="D21" t="n">
+        <v>469.3806429519929</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5705</v>
+      </c>
+      <c r="D22" t="n">
+        <v>608.6963173273458</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6391</v>
+      </c>
+      <c r="D23" t="n">
+        <v>504.1168693067108</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6395</v>
+      </c>
+      <c r="D24" t="n">
+        <v>669.4510252987051</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>9</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6627</v>
+      </c>
+      <c r="D25" t="n">
+        <v>543.0567831040496</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6630</v>
+      </c>
+      <c r="D26" t="n">
+        <v>735.4975077776536</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>10</v>
+      </c>
+      <c r="C27" t="n">
+        <v>7291</v>
+      </c>
+      <c r="D27" t="n">
+        <v>577.8996079940081</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="n">
+        <v>6</v>
+      </c>
+      <c r="C28" t="n">
+        <v>7296</v>
+      </c>
+      <c r="D28" t="n">
+        <v>791.8989309689963</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>8191</v>
+      </c>
+      <c r="D29" t="n">
+        <v>637.0951121634924</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="n">
+        <v>12</v>
+      </c>
+      <c r="C30" t="n">
+        <v>8191</v>
+      </c>
+      <c r="D30" t="n">
+        <v>849.4323961180639</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="n">
+        <v>11</v>
+      </c>
+      <c r="C31" t="n">
+        <v>8393</v>
+      </c>
+      <c r="D31" t="n">
+        <v>903.0503011057173</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>8</v>
+      </c>
+      <c r="C32" t="n">
+        <v>9090</v>
+      </c>
+      <c r="D32" t="n">
+        <v>689.1594479378674</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" t="n">
+        <v>9094</v>
+      </c>
+      <c r="D33" t="n">
+        <v>983.0922308208142</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5</v>
+      </c>
+      <c r="C34" t="n">
+        <v>10891</v>
+      </c>
+      <c r="D34" t="n">
+        <v>747.4010990260749</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="n">
+        <v>11</v>
+      </c>
+      <c r="C35" t="n">
+        <v>10893</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1057.120506983251</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>11791</v>
+      </c>
+      <c r="D36" t="n">
+        <v>788.095001599474</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>11796</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1157.712039089538</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3</v>
+      </c>
+      <c r="C38" t="n">
+        <v>12008</v>
+      </c>
+      <c r="D38" t="n">
+        <v>821.8179343301529</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2</v>
+      </c>
+      <c r="C39" t="n">
+        <v>12015</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1215.078916589528</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>5</v>
+      </c>
+      <c r="C40" t="n">
+        <v>12691</v>
+      </c>
+      <c r="D40" t="n">
+        <v>861.8592049104832</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4</v>
+      </c>
+      <c r="C41" t="n">
+        <v>12693</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1268.451127273486</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>9</v>
+      </c>
+      <c r="C42" t="n">
+        <v>12933</v>
+      </c>
+      <c r="D42" t="n">
+        <v>910.9905715948346</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0</v>
+      </c>
+      <c r="B43" t="n">
+        <v>10</v>
+      </c>
+      <c r="C43" t="n">
+        <v>13591</v>
+      </c>
+      <c r="D43" t="n">
+        <v>956.0853214290107</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" t="n">
+        <v>6</v>
+      </c>
+      <c r="C44" t="n">
+        <v>13593</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1333.242429684431</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0</v>
+      </c>
+      <c r="B45" t="n">
+        <v>12</v>
+      </c>
+      <c r="C45" t="n">
+        <v>13825</v>
+      </c>
+      <c r="D45" t="n">
+        <v>997.0856043127457</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>4</v>
+      </c>
+      <c r="C46" t="n">
+        <v>14492</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1039.865289860089</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>14495</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1415.41731657607</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0</v>
+      </c>
+      <c r="B48" t="n">
+        <v>5</v>
+      </c>
+      <c r="C48" t="n">
+        <v>14695</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1066.408113074711</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0</v>
+      </c>
+      <c r="B49" t="n">
+        <v>13</v>
+      </c>
+      <c r="C49" t="n">
+        <v>16291</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1135.132594550801</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" t="n">
+        <v>6</v>
+      </c>
+      <c r="C50" t="n">
+        <v>16293</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1504.592766014055</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0</v>
+      </c>
+      <c r="B51" t="n">
+        <v>3</v>
+      </c>
+      <c r="C51" t="n">
+        <v>17191</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1198.477712732056</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>17196</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1583.726103505992</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0</v>
+      </c>
+      <c r="B53" t="n">
+        <v>4</v>
+      </c>
+      <c r="C53" t="n">
+        <v>17399</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1236.391035259751</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0</v>
+      </c>
+      <c r="B54" t="n">
+        <v>5</v>
+      </c>
+      <c r="C54" t="n">
+        <v>18092</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1275.292124252354</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1</v>
+      </c>
+      <c r="B55" t="n">
+        <v>6</v>
+      </c>
+      <c r="C55" t="n">
+        <v>18093</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1668.220435544042</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>12</v>
+      </c>
+      <c r="C56" t="n">
+        <v>18334</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1322.490963874422</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>18991</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1384.785124752917</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" t="n">
+        <v>10</v>
+      </c>
+      <c r="C58" t="n">
+        <v>18994</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1725.883896556894</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" t="n">
+        <v>11</v>
+      </c>
+      <c r="C59" t="n">
+        <v>19206</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1779.301513286388</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0</v>
+      </c>
+      <c r="B60" t="n">
+        <v>9</v>
+      </c>
+      <c r="C60" t="n">
+        <v>19891</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1431.932985200866</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>19893</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1880.094825623062</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="n">
+        <v>20021</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1449.339070196525</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="n">
+        <v>20021</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1906.861602662345</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,53 +1434,493 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Vehicle ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Turbine Inspected</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Distance so Far</t>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>AUV_ID</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Total Distance</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>208</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>208</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AUV_ID</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Distance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>73</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vehicle ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Turbine Inspected</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Distance so Far</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>AUV_ID</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Distance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>216</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.5155833292995</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>307</v>
+      </c>
+      <c r="D3" t="n">
+        <v>51.074316215172</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>990</v>
+      </c>
+      <c r="D4" t="n">
+        <v>124.6804984861885</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>990</v>
+      </c>
+      <c r="D5" t="n">
+        <v>73.40302276127801</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1209</v>
+      </c>
+      <c r="D6" t="n">
+        <v>167.7494778351126</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1221</v>
+      </c>
+      <c r="D7" t="n">
+        <v>117.2150361338734</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1890</v>
+      </c>
+      <c r="D8" t="n">
+        <v>175.6747759501598</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1891</v>
+      </c>
+      <c r="D9" t="n">
+        <v>224.156922372074</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="n">
+        <v>2239</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>224.156922372074</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="n">
+        <v>2239</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>201.1745768119271</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vehicle ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Turbine Inspected</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Distance so Far</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>AUV_ID</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Distance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>207</v>
+      </c>
+      <c r="D2" t="n">
+        <v>40.84756868328867</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>298</v>
+      </c>
+      <c r="D3" t="n">
+        <v>61.13868409110275</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>989</v>
+      </c>
+      <c r="D4" t="n">
+        <v>108.2412538088845</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="n">
+        <v>990</v>
+      </c>
+      <c r="D5" t="n">
+        <v>81.76086989255313</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="n">
+        <v>1079</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>97.21448888551873</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="n">
+        <v>1079</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>112.3507705206336</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vehicle ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Turbine Inspected</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Distance so Far</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>AUV_ID</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Distance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="D2" t="n">
-        <v>57.41227281852916</v>
+        <v>38.87982929093207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="D3" t="n">
-        <v>93.48099772705845</v>
+        <v>40.88599971822888</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +1928,286 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>989</v>
+      </c>
+      <c r="D4" t="n">
+        <v>81.78534988506333</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
         <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>990</v>
+      </c>
+      <c r="D5" t="n">
+        <v>78.88416858490807</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1223</v>
+      </c>
+      <c r="D6" t="n">
+        <v>126.6736213047503</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1890</v>
+      </c>
+      <c r="D7" t="n">
+        <v>168.738913541968</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1891</v>
+      </c>
+      <c r="D8" t="n">
+        <v>125.9488479429761</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>14</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2113</v>
+      </c>
+      <c r="D9" t="n">
+        <v>212.8198168293362</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2790</v>
+      </c>
+      <c r="D10" t="n">
+        <v>281.3923263359583</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>12</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3021</v>
+      </c>
+      <c r="D11" t="n">
+        <v>219.018636968584</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3690</v>
+      </c>
+      <c r="D12" t="n">
+        <v>261.8945271119635</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3691</v>
+      </c>
+      <c r="D13" t="n">
+        <v>333.4573660141647</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3926</v>
+      </c>
+      <c r="D14" t="n">
+        <v>307.8809207887939</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="n">
+        <v>5008</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>353.8747293273869</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="n">
+        <v>5008</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>337.5509290547119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="55.6640625" bestFit="1" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vehicle ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Turbine Inspected</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Distance so Far</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>AUV_ID</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Distance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>216</v>
+      </c>
+      <c r="D2" t="n">
+        <v>42.12098478528723</v>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  self.BETA = 400 # Focus on more allocations</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>267</v>
+      </c>
+      <c r="D3" t="n">
+        <v>69.77714880525303</v>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        self.ALPHA = 15  # Focus on travelling less</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>991</v>
       </c>
       <c r="D4" t="n">
-        <v>101.2785268083428</v>
+        <v>127.2113284807758</v>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        self.ZETA = 5 # Focus on visiting turbines not visited lately</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -502,13 +2215,18 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="D5" t="n">
-        <v>154.9860446604018</v>
+        <v>117.3047916707496</v>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>random allocation FALSE</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -516,13 +2234,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>1191</v>
+        <v>1210</v>
       </c>
       <c r="D6" t="n">
-        <v>207.333617913737</v>
+        <v>172.5947499386954</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +2248,2204 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1236</v>
+      </c>
+      <c r="D7" t="n">
+        <v>178.473869080264</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2120</v>
+      </c>
+      <c r="D8" t="n">
+        <v>279.3856705389672</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="n">
         <v>10</v>
       </c>
+      <c r="C9" t="n">
+        <v>2989</v>
+      </c>
+      <c r="D9" t="n">
+        <v>402.5592682097122</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3694</v>
+      </c>
+      <c r="D10" t="n">
+        <v>403.5377776091999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3695</v>
+      </c>
+      <c r="D11" t="n">
+        <v>462.9605913540346</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3905</v>
+      </c>
+      <c r="D12" t="n">
+        <v>460.0399053420905</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3921</v>
+      </c>
+      <c r="D13" t="n">
+        <v>532.9519886821041</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5494</v>
+      </c>
+      <c r="D14" t="n">
+        <v>518.7769424230397</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5496</v>
+      </c>
+      <c r="D15" t="n">
+        <v>618.2863323860761</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5706</v>
+      </c>
+      <c r="D16" t="n">
+        <v>569.2243732878383</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6392</v>
+      </c>
+      <c r="D17" t="n">
+        <v>637.3012431121678</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6395</v>
+      </c>
+      <c r="D18" t="n">
+        <v>689.324173554229</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6633</v>
+      </c>
+      <c r="D19" t="n">
+        <v>744.8495930175942</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="n">
+        <v>7486</v>
+      </c>
+      <c r="D20" t="n">
+        <v>762.7238003256201</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="n">
+        <v>11</v>
+      </c>
+      <c r="C21" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D21" t="n">
+        <v>818.2428293788281</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>8195</v>
+      </c>
+      <c r="D22" t="n">
+        <v>862.8843377195628</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>8429</v>
+      </c>
+      <c r="D23" t="n">
+        <v>917.3460002564489</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="n">
+        <v>6</v>
+      </c>
+      <c r="C24" t="n">
+        <v>9095</v>
+      </c>
+      <c r="D24" t="n">
+        <v>867.4667604585101</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" t="n">
+        <v>9312</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1023.965584940416</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C26" t="n">
+        <v>10893</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1081.565486494987</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" t="n">
+        <v>10894</v>
+      </c>
+      <c r="D27" t="n">
+        <v>959.7203452380146</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="n">
+        <v>11111</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1131.961008599816</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>11122</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1009.116200865248</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" t="n">
+        <v>11793</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1062.418061550936</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5</v>
+      </c>
+      <c r="C31" t="n">
+        <v>11796</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1189.597898084206</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>6</v>
+      </c>
+      <c r="C32" t="n">
+        <v>11993</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1237.978411881377</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="n">
+        <v>7</v>
+      </c>
+      <c r="C33" t="n">
+        <v>12005</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1111.49320911232</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="n">
+        <v>8</v>
+      </c>
+      <c r="C34" t="n">
+        <v>12694</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1157.602583814129</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>14</v>
+      </c>
+      <c r="C35" t="n">
+        <v>12695</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1334.536395820776</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="n">
+        <v>10</v>
+      </c>
+      <c r="C36" t="n">
+        <v>12933</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1220.333421982654</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="n">
+        <v>11</v>
+      </c>
+      <c r="C37" t="n">
+        <v>13592</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1278.916844140544</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>9</v>
+      </c>
+      <c r="C38" t="n">
+        <v>13594</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1402.515708727104</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4</v>
+      </c>
+      <c r="C39" t="n">
+        <v>13795</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1456.993082785406</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" t="n">
+        <v>12</v>
+      </c>
+      <c r="C40" t="n">
+        <v>13804</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1322.112732301797</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>6</v>
+      </c>
+      <c r="C41" t="n">
+        <v>14493</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1512.553992737746</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="n">
+        <v>13</v>
+      </c>
+      <c r="C42" t="n">
+        <v>14496</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1442.311648572535</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0</v>
+      </c>
+      <c r="B43" t="n">
+        <v>3</v>
+      </c>
+      <c r="C43" t="n">
+        <v>16292</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1591.878289565327</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>16295</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1532.820692881005</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>16485</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1574.978473208756</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>9</v>
+      </c>
+      <c r="C46" t="n">
+        <v>17192</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1659.93234019109</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3</v>
+      </c>
+      <c r="C47" t="n">
+        <v>17193</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1627.328934968712</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0</v>
+      </c>
+      <c r="B48" t="n">
+        <v>11</v>
+      </c>
+      <c r="C48" t="n">
+        <v>17436</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1731.756530745754</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" t="n">
+        <v>7</v>
+      </c>
+      <c r="C49" t="n">
+        <v>18094</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1703.444450313117</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" t="n">
+        <v>8</v>
+      </c>
+      <c r="C50" t="n">
+        <v>18312</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1753.890288229416</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" t="n">
+        <v>5</v>
+      </c>
+      <c r="C51" t="n">
+        <v>18992</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1839.196876034772</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>13</v>
+      </c>
+      <c r="C52" t="n">
+        <v>18994</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1880.880829902141</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B53" t="n">
+        <v>10</v>
+      </c>
+      <c r="C53" t="n">
+        <v>19220</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1892.661004953567</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2</v>
+      </c>
+      <c r="C54" t="n">
+        <v>19895</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1952.586348538789</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>19896</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1981.289734996689</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>3</v>
+      </c>
+      <c r="C56" t="n">
+        <v>20116</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1999.932765309828</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0</v>
+      </c>
+      <c r="B57" t="n">
+        <v>4</v>
+      </c>
+      <c r="C57" t="n">
+        <v>21692</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2062.657039512269</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" t="n">
+        <v>6</v>
+      </c>
+      <c r="C58" t="n">
+        <v>21694</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2070.587539338583</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2</v>
+      </c>
+      <c r="C59" t="n">
+        <v>22595</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2133.785743610755</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>22595</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2149.819437105545</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" t="n">
+        <v>3</v>
+      </c>
+      <c r="C61" t="n">
+        <v>22831</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2210.229487872237</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>4</v>
+      </c>
+      <c r="C62" t="n">
+        <v>23495</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2189.008022662078</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>23495</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2256.582864038019</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>6</v>
+      </c>
+      <c r="C64" t="n">
+        <v>24392</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2257.837512419193</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1</v>
+      </c>
+      <c r="B65" t="n">
+        <v>12</v>
+      </c>
+      <c r="C65" t="n">
+        <v>24393</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2363.393184333012</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>10</v>
+      </c>
+      <c r="C66" t="n">
+        <v>25293</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2323.541161151905</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1</v>
+      </c>
+      <c r="B67" t="n">
+        <v>8</v>
+      </c>
+      <c r="C67" t="n">
+        <v>25295</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2450.554883961654</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1</v>
+      </c>
+      <c r="B68" t="n">
+        <v>14</v>
+      </c>
+      <c r="C68" t="n">
+        <v>27093</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2515.145787193988</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>7</v>
+      </c>
+      <c r="C69" t="n">
+        <v>27094</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2406.509538874281</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>27995</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2487.484793708924</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1</v>
+      </c>
+      <c r="B71" t="n">
+        <v>4</v>
+      </c>
+      <c r="C71" t="n">
+        <v>27995</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2600.582066084276</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1</v>
+      </c>
+      <c r="B72" t="n">
+        <v>5</v>
+      </c>
+      <c r="C72" t="n">
+        <v>28218</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2660.272266728025</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2</v>
+      </c>
+      <c r="C73" t="n">
+        <v>28228</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2548.914381680819</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>3</v>
+      </c>
+      <c r="C74" t="n">
+        <v>28893</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2602.342296041924</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1</v>
+      </c>
+      <c r="B75" t="n">
+        <v>11</v>
+      </c>
+      <c r="C75" t="n">
+        <v>28894</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2720.84916088765</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1</v>
+      </c>
+      <c r="B76" t="n">
+        <v>7</v>
+      </c>
+      <c r="C76" t="n">
+        <v>29793</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2826.875442020678</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>10</v>
+      </c>
+      <c r="C77" t="n">
+        <v>29795</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2676.184071466366</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="n">
+        <v>30018</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2698.908247159719</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="n">
+        <v>30018</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2876.228067264202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Vehicle ID</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Turbine Inspected</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Distance so Far</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>AUV_ID</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Total Distance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>260</v>
+      </c>
+      <c r="D2" t="n">
+        <v>61.51143541066803</v>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  self.BETA = 400 # Focus on more allocations</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>315</v>
+      </c>
+      <c r="D3" t="n">
+        <v>94.38766998517772</v>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        self.ALPHA = 15  # Focus on travelling less</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>992</v>
+      </c>
+      <c r="D4" t="n">
+        <v>150.636695891576</v>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        self.ZETA = 10 # Focus on visiting turbines not visited lately</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>994</v>
+      </c>
+      <c r="D5" t="n">
+        <v>110.8953431439859</v>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>random allocation FALSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1209</v>
+      </c>
+      <c r="D6" t="n">
+        <v>163.2283022290246</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
       <c r="C7" t="n">
-        <v>1221</v>
+        <v>1892</v>
       </c>
       <c r="D7" t="n">
-        <v>149.408557604664</v>
+        <v>228.5280789799444</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1894</v>
+      </c>
+      <c r="D8" t="n">
+        <v>214.5325782374296</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2794</v>
+      </c>
+      <c r="D9" t="n">
+        <v>318.8675480594481</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2795</v>
+      </c>
+      <c r="D10" t="n">
+        <v>296.7220400543243</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3692</v>
+      </c>
+      <c r="D11" t="n">
+        <v>364.322707803044</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3693</v>
+      </c>
+      <c r="D12" t="n">
+        <v>385.830033174098</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3908</v>
+      </c>
+      <c r="D13" t="n">
+        <v>452.5271782648786</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5492</v>
+      </c>
+      <c r="D14" t="n">
+        <v>524.6213020801725</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>12</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5493</v>
+      </c>
+      <c r="D15" t="n">
+        <v>418.7048668157761</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5713</v>
+      </c>
+      <c r="D16" t="n">
+        <v>576.9884310177832</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6393</v>
+      </c>
+      <c r="D17" t="n">
+        <v>645.0975005728427</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6394</v>
+      </c>
+      <c r="D18" t="n">
+        <v>511.9750191410608</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>7291</v>
+      </c>
+      <c r="D19" t="n">
+        <v>583.7096844265524</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>7294</v>
+      </c>
+      <c r="D20" t="n">
+        <v>743.7026687183078</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D21" t="n">
+        <v>846.6766286891364</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>12</v>
+      </c>
+      <c r="C22" t="n">
+        <v>8193</v>
+      </c>
+      <c r="D22" t="n">
+        <v>676.1349744530072</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="n">
+        <v>7</v>
+      </c>
+      <c r="C23" t="n">
+        <v>8409</v>
+      </c>
+      <c r="D23" t="n">
+        <v>900.068666496693</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="n">
+        <v>9093</v>
+      </c>
+      <c r="D24" t="n">
+        <v>956.8276317260937</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>9</v>
+      </c>
+      <c r="C25" t="n">
+        <v>9094</v>
+      </c>
+      <c r="D25" t="n">
+        <v>753.2587952141462</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>10</v>
+      </c>
+      <c r="C26" t="n">
+        <v>9302</v>
+      </c>
+      <c r="D26" t="n">
+        <v>804.4935166334226</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>9331</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1011.263576437895</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" t="n">
+        <v>10892</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1069.923391404915</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>10895</v>
+      </c>
+      <c r="D29" t="n">
+        <v>875.3018004764546</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" t="n">
+        <v>11793</v>
+      </c>
+      <c r="D30" t="n">
+        <v>948.2881958221104</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5</v>
+      </c>
+      <c r="C31" t="n">
+        <v>11793</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1143.939767391129</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="n">
+        <v>10</v>
+      </c>
+      <c r="C32" t="n">
+        <v>12011</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1202.560672996494</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>4</v>
+      </c>
+      <c r="C33" t="n">
+        <v>12032</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1013.023920353452</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="n">
+        <v>11</v>
+      </c>
+      <c r="C34" t="n">
+        <v>12692</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1258.019607064315</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>12</v>
+      </c>
+      <c r="C35" t="n">
+        <v>12910</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1138.410280611518</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="n">
+        <v>9</v>
+      </c>
+      <c r="C36" t="n">
+        <v>12932</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1331.05776528993</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>13</v>
+      </c>
+      <c r="C37" t="n">
+        <v>13593</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1278.119061770592</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>14</v>
+      </c>
+      <c r="C38" t="n">
+        <v>13802</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1326.46502571664</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>14494</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1462.728403115766</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" t="n">
+        <v>14495</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1395.336917663655</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>14704</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1454.043966553543</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="n">
+        <v>7</v>
+      </c>
+      <c r="C42" t="n">
+        <v>16292</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1540.619069842141</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0</v>
+      </c>
+      <c r="B43" t="n">
+        <v>11</v>
+      </c>
+      <c r="C43" t="n">
+        <v>17193</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1610.207535207062</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>17195</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1619.644562250526</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3</v>
+      </c>
+      <c r="C45" t="n">
+        <v>17426</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1678.89239781372</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>18994</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1800.482391293987</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0</v>
+      </c>
+      <c r="B47" t="n">
+        <v>5</v>
+      </c>
+      <c r="C47" t="n">
+        <v>19236</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1883.685397294593</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0</v>
+      </c>
+      <c r="B48" t="n">
+        <v>12</v>
+      </c>
+      <c r="C48" t="n">
+        <v>19893</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1958.823910821566</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" t="n">
+        <v>4</v>
+      </c>
+      <c r="C49" t="n">
+        <v>20105</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1998.247545653993</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" t="n">
+        <v>13</v>
+      </c>
+      <c r="C50" t="n">
+        <v>21692</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2100.121031371965</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0</v>
+      </c>
+      <c r="B51" t="n">
+        <v>8</v>
+      </c>
+      <c r="C51" t="n">
+        <v>21694</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2065.715711001145</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>22593</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2147.708025190498</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B53" t="n">
+        <v>4</v>
+      </c>
+      <c r="C53" t="n">
+        <v>22594</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2197.920161679899</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0</v>
+      </c>
+      <c r="B54" t="n">
+        <v>3</v>
+      </c>
+      <c r="C54" t="n">
+        <v>22820</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2205.396039109549</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1</v>
+      </c>
+      <c r="B55" t="n">
+        <v>11</v>
+      </c>
+      <c r="C55" t="n">
+        <v>22835</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2273.808785883727</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1</v>
+      </c>
+      <c r="B56" t="n">
+        <v>12</v>
+      </c>
+      <c r="C56" t="n">
+        <v>23493</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2328.347569274475</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0</v>
+      </c>
+      <c r="B57" t="n">
+        <v>6</v>
+      </c>
+      <c r="C57" t="n">
+        <v>23493</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2285.338604279854</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0</v>
+      </c>
+      <c r="B58" t="n">
+        <v>10</v>
+      </c>
+      <c r="C58" t="n">
+        <v>24395</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2347.025870169387</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" t="n">
+        <v>8</v>
+      </c>
+      <c r="C59" t="n">
+        <v>25294</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2469.864067419452</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0</v>
+      </c>
+      <c r="B60" t="n">
+        <v>14</v>
+      </c>
+      <c r="C60" t="n">
+        <v>25295</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2436.320083416346</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0</v>
+      </c>
+      <c r="B61" t="n">
+        <v>9</v>
+      </c>
+      <c r="C61" t="n">
+        <v>27093</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2509.215874481851</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>27095</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2542.705777879819</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>27287</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2582.560965137574</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" t="n">
+        <v>7</v>
+      </c>
+      <c r="C64" t="n">
+        <v>27993</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2664.97700870171</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2</v>
+      </c>
+      <c r="C65" t="n">
+        <v>27995</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2578.050684765381</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1</v>
+      </c>
+      <c r="B66" t="n">
+        <v>8</v>
+      </c>
+      <c r="C66" t="n">
+        <v>28215</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2717.58163122873</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1</v>
+      </c>
+      <c r="B67" t="n">
+        <v>12</v>
+      </c>
+      <c r="C67" t="n">
+        <v>28894</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2802.927952945762</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>6</v>
+      </c>
+      <c r="C68" t="n">
+        <v>28895</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2676.673125670728</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>11</v>
+      </c>
+      <c r="C69" t="n">
+        <v>29122</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2731.130813272245</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>13</v>
+      </c>
+      <c r="C70" t="n">
+        <v>29793</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2854.575719947812</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1</v>
+      </c>
+      <c r="B71" t="n">
+        <v>9</v>
+      </c>
+      <c r="C71" t="n">
+        <v>29796</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2889.097565844535</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="n">
+        <v>30008</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2870.315609257795</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="n">
+        <v>30008</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2927.272952866465</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>AUV_ID</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Total Distance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>686</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>686</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>AUV_ID</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Total Distance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>367</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>367</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/distance_data.xlsx
+++ b/distance_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\UbuntuDemeter\root\ws_demeter_rosplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D182F31D-EDE1-4187-B679-751812734F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8566DCF5-564E-4E91-BFF8-2FD0E51FC440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35892" yWindow="9312" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35892" yWindow="9312" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="turbines15_vehicles2_1457_0904" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Vehicle ID</t>
   </si>
@@ -66,13 +66,736 @@
   </si>
   <si>
     <t>        self.ZETA = 0.1 # Focus on visiting turbines not visited lately</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAX_BALANCE_DIFFERENCE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Number of unbalance allowed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAX_ALLOCATION_ITERATION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>25000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>allocation_processing_time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAX_ALLOCATION_ITERATION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>EXECUTE_TIME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>120</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>allocation_processing_time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Inspect turbine estimated execute time (Seconds), discounted by allocation processing time</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LEAD_TIME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>allocation_processing_time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Amount of time allocation may start before high waves have ended (seconds)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Weighted sum multi objective optimization</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BETA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Focus on more allocations</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ALPHA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Focus on travelling less</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ZETA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Focus on visiting turbines not visited lately</t>
+    </r>
+  </si>
+  <si>
+    <t>random</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +819,42 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -111,7 +870,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -149,11 +908,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -165,6 +935,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -471,7 +1247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -975,13 +1751,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1000,8 +1778,11 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1014,8 +1795,11 @@
       <c r="D2">
         <v>49.060136014729459</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1028,8 +1812,11 @@
       <c r="D3">
         <v>78.239020069408426</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1042,8 +1829,11 @@
       <c r="D4">
         <v>97.085850319654355</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1056,8 +1846,11 @@
       <c r="D5">
         <v>154.10001968630769</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1070,8 +1863,9 @@
       <c r="D6">
         <v>118.4085242631576</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1084,8 +1878,11 @@
       <c r="D7">
         <v>227.13261937529381</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1098,8 +1895,9 @@
       <c r="D8">
         <v>164.37396742221691</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1112,8 +1910,11 @@
       <c r="D9">
         <v>314.52834662876018</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1126,8 +1927,11 @@
       <c r="D10">
         <v>213.41807072994189</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1140,8 +1944,11 @@
       <c r="D11">
         <v>252.25870843868259</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1154,8 +1961,11 @@
       <c r="D12">
         <v>403.10503493295528</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1169,7 +1979,7 @@
         <v>447.33135477791137</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1183,7 +1993,7 @@
         <v>291.11942954348359</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1197,7 +2007,7 @@
         <v>336.9829138358196</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>

--- a/distance_data.xlsx
+++ b/distance_data.xlsx
@@ -3,12 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="35892" yWindow="9312" windowWidth="23256" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="turbines15_vehicles2_1457_0904" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="turbines15_vehicles2_1907_0904" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="turbines5_vehicles1_1255_0906" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="turbines5_vehicles1_1422_0906" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="turbines5_vehicles1_1627_0906" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="turbines5_vehicles1_1730_0906" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -18,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="11">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -46,30 +48,6 @@
       <name val="Consolas"/>
       <family val="3"/>
       <color rgb="FFCCCCCC"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <color rgb="FF9CDCFE"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <color rgb="FFD4D4D4"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <color rgb="FFB5CEA8"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <color rgb="FF6A9955"/>
       <sz val="11"/>
     </font>
     <font>
@@ -172,10 +150,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -545,7 +523,7 @@
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -1085,7 +1063,7 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1600,7 +1578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1648,26 +1626,462 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="D2" t="n">
-        <v>139.9393691600548</v>
+        <v>137.9896437867527</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2494</v>
+      </c>
+      <c r="D3" t="n">
+        <v>289.2710139317554</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="n">
+        <v>20018</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>635.6023081961719</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>Vehicle ID</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Turbine Inspected</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>Distance so Far</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>AUV_ID</t>
+        </is>
+      </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>Total Distance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1292</v>
+      </c>
+      <c r="D2" t="n">
+        <v>138.0987149145571</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2493</v>
+      </c>
+      <c r="D3" t="n">
+        <v>271.8235154279624</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3693</v>
+      </c>
+      <c r="D4" t="n">
+        <v>399.5410849800598</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4892</v>
+      </c>
+      <c r="D5" t="n">
+        <v>539.3394540599026</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7292</v>
+      </c>
+      <c r="D6" t="n">
+        <v>718.1545665626721</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7513</v>
+      </c>
+      <c r="D7" t="n">
+        <v>777.6631661015128</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8495</v>
+      </c>
+      <c r="D8" t="n">
+        <v>895.2063442347931</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9693</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1058.030614791423</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10896</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1205.492773491926</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>12092</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1321.444939236478</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="n">
+        <v>20021</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1469.572757235454</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>Vehicle ID</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Turbine Inspected</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>Distance so Far</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>AUV_ID</t>
+        </is>
+      </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>Total Distance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1291</v>
+      </c>
+      <c r="D2" t="n">
+        <v>89.62598386773249</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
       <c r="C3" t="n">
-        <v>8969</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>333.370018980093</v>
+        <v>2489</v>
+      </c>
+      <c r="D3" t="n">
+        <v>207.8335974897318</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3690</v>
+      </c>
+      <c r="D4" t="n">
+        <v>303.4992971091305</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4889</v>
+      </c>
+      <c r="D5" t="n">
+        <v>381.8200007718938</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7291</v>
+      </c>
+      <c r="D6" t="n">
+        <v>514.3021248155599</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8489</v>
+      </c>
+      <c r="D7" t="n">
+        <v>594.5793774796774</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9690</v>
+      </c>
+      <c r="D8" t="n">
+        <v>664.61293642897</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10887</v>
+      </c>
+      <c r="D9" t="n">
+        <v>775.5928485046121</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12089</v>
+      </c>
+      <c r="D10" t="n">
+        <v>873.2922973471594</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>14489</v>
+      </c>
+      <c r="D11" t="n">
+        <v>947.9696595905589</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>16848</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>947.9696595905589</v>
       </c>
     </row>
   </sheetData>

--- a/distance_data.xlsx
+++ b/distance_data.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\UbuntuDemeter\root\ws_demeter_rosplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\UbuntuDemeter\root\demeter-paper-simulations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8566DCF5-564E-4E91-BFF8-2FD0E51FC440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F2A79F-D10B-4A24-B750-50B5440E8C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35892" yWindow="9312" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="372" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="turbines15_vehicles2_1457_0904" sheetId="1" r:id="rId1"/>
-    <sheet name="turbines15_vehicles2_1907_0904" sheetId="3" r:id="rId2"/>
+    <sheet name="turbines15_vehicles2_1907_0904" sheetId="2" r:id="rId2"/>
+    <sheet name="turbines30_vehicles2_1544_0919" sheetId="4" r:id="rId3"/>
+    <sheet name="turbines30_vehicles2_0823_0920" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
   <si>
     <t>Vehicle ID</t>
   </si>
@@ -68,184 +70,54 @@
     <t>        self.ZETA = 0.1 # Focus on visiting turbines not visited lately</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>self</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>MAX_BALANCE_DIFFERENCE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF6A9955"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t># Number of unbalance allowed</t>
-    </r>
+    <t>random</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>self</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>MAX_ALLOCATION_ITERATION</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>25000</t>
-    </r>
+    <t>  self.MAX_BALANCE_DIFFERENCE = 2 # Number of unbalance allowed</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
         <color rgb="FF9CDCFE"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>allocation_processing_time</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
         <color rgb="FFCCCCCC"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAX_BALANCE_DIFFERENCE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color rgb="FFD4D4D4"/>
         <rFont val="Consolas"/>
         <family val="3"/>
@@ -254,7 +126,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color rgb="FFCCCCCC"/>
         <rFont val="Consolas"/>
         <family val="3"/>
@@ -263,48 +135,30 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>self</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
         <color rgb="FFCCCCCC"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>MAX_ALLOCATION_ITERATION</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1000</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Number of unbalance allowed</t>
     </r>
   </si>
   <si>
@@ -313,7 +167,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color rgb="FF9CDCFE"/>
         <rFont val="Consolas"/>
         <family val="3"/>
@@ -322,7 +176,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color rgb="FFCCCCCC"/>
         <rFont val="Consolas"/>
         <family val="3"/>
@@ -331,16 +185,16 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color rgb="FF9CDCFE"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>EXECUTE_TIME</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>MAX_ALLOCATION_ITERATION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
         <color rgb="FFCCCCCC"/>
         <rFont val="Consolas"/>
         <family val="3"/>
@@ -349,7 +203,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color rgb="FFD4D4D4"/>
         <rFont val="Consolas"/>
         <family val="3"/>
@@ -358,7 +212,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color rgb="FFCCCCCC"/>
         <rFont val="Consolas"/>
         <family val="3"/>
@@ -367,66 +221,12 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color rgb="FFB5CEA8"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>120</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>allocation_processing_time</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF6A9955"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t># Inspect turbine estimated execute time (Seconds), discounted by allocation processing time</t>
+      <t>25000</t>
     </r>
   </si>
   <si>
@@ -435,16 +235,52 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color rgb="FF9CDCFE"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t>allocation_processing_time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>self</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color rgb="FFCCCCCC"/>
         <rFont val="Consolas"/>
         <family val="3"/>
@@ -453,66 +289,30 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color rgb="FF9CDCFE"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>LEAD_TIME</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>MAX_ALLOCATION_ITERATION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
         <color rgb="FFD4D4D4"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>allocation_processing_time</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF6A9955"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t># Amount of time allocation may start before high waves have ended (seconds)</t>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1000</t>
     </r>
   </si>
   <si>
@@ -521,12 +321,120 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>EXECUTE_TIME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>120</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>allocation_processing_time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
         <color rgb="FF6A9955"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t># Weighted sum multi objective optimization</t>
+      <t># Inspect turbine estimated execute time (Seconds), discounted by allocation processing time</t>
     </r>
   </si>
   <si>
@@ -535,7 +443,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color rgb="FF9CDCFE"/>
         <rFont val="Consolas"/>
         <family val="3"/>
@@ -544,7 +452,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color rgb="FFCCCCCC"/>
         <rFont val="Consolas"/>
         <family val="3"/>
@@ -553,16 +461,16 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color rgb="FF9CDCFE"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>BETA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>LEAD_TIME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
         <color rgb="FFCCCCCC"/>
         <rFont val="Consolas"/>
         <family val="3"/>
@@ -571,7 +479,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color rgb="FFD4D4D4"/>
         <rFont val="Consolas"/>
         <family val="3"/>
@@ -580,7 +488,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color rgb="FFCCCCCC"/>
         <rFont val="Consolas"/>
         <family val="3"/>
@@ -589,16 +497,16 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>allocation_processing_time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
         <color rgb="FFCCCCCC"/>
         <rFont val="Consolas"/>
         <family val="3"/>
@@ -607,12 +515,12 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color rgb="FF6A9955"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t># Focus on more allocations</t>
+      <t># Amount of time allocation may start before high waves have ended (seconds)</t>
     </r>
   </si>
   <si>
@@ -621,84 +529,12 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>self</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>ALPHA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color rgb="FF6A9955"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t># Focus on travelling less</t>
+      <t># Weighted sum multi objective optimization</t>
     </r>
   </si>
   <si>
@@ -707,7 +543,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color rgb="FF9CDCFE"/>
         <rFont val="Consolas"/>
         <family val="3"/>
@@ -716,7 +552,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color rgb="FFCCCCCC"/>
         <rFont val="Consolas"/>
         <family val="3"/>
@@ -725,16 +561,16 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color rgb="FF9CDCFE"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>ZETA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>BETA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
         <color rgb="FFCCCCCC"/>
         <rFont val="Consolas"/>
         <family val="3"/>
@@ -743,7 +579,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color rgb="FFD4D4D4"/>
         <rFont val="Consolas"/>
         <family val="3"/>
@@ -752,7 +588,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color rgb="FFCCCCCC"/>
         <rFont val="Consolas"/>
         <family val="3"/>
@@ -761,16 +597,16 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color rgb="FFB5CEA8"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>0.1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
         <color rgb="FFCCCCCC"/>
         <rFont val="Consolas"/>
         <family val="3"/>
@@ -779,23 +615,254 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color rgb="FF6A9955"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t># Focus on visiting turbines not visited lately</t>
+      <t># Focus on more allocations</t>
     </r>
   </si>
   <si>
-    <t>random</t>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ALPHA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Focus on travelling less</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ZETA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Focus on visiting turbines not visited lately</t>
+    </r>
+  </si>
+  <si>
+    <t>self.RANDOM_ALLOCATION = True</t>
+  </si>
+  <si>
+    <r>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>RANDOM_ALLOCATION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>False</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -826,34 +893,45 @@
       <family val="3"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF9CDCFE"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8"/>
       <color rgb="FFD4D4D4"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8"/>
       <color rgb="FFB5CEA8"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8"/>
       <color rgb="FF6A9955"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="8"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -870,7 +948,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -919,11 +997,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -940,8 +1033,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1247,13 +1349,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1273,7 +1375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1290,7 +1392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1307,7 +1409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1324,7 +1426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1341,7 +1443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1356,7 +1458,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1373,7 +1475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1388,7 +1490,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1405,7 +1507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1422,7 +1524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1439,7 +1541,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1456,7 +1558,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1470,7 +1572,7 @@
         <v>400.30055057535651</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1484,7 +1586,7 @@
         <v>453.80241035510551</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1498,7 +1600,7 @@
         <v>499.84923630933002</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1512,7 +1614,7 @@
         <v>531.01305445014964</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1526,7 +1628,7 @@
         <v>549.26332357407148</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1540,7 +1642,7 @@
         <v>590.66654594030172</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1554,7 +1656,7 @@
         <v>625.41447804216625</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1568,7 +1670,7 @@
         <v>686.10257277425694</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -1582,7 +1684,7 @@
         <v>642.15681314483425</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1596,7 +1698,7 @@
         <v>770.14004094123732</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0</v>
       </c>
@@ -1610,7 +1712,7 @@
         <v>734.71787380161447</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0</v>
       </c>
@@ -1624,7 +1726,7 @@
         <v>813.86908212961453</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1638,7 +1740,7 @@
         <v>821.42617901112192</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1652,7 +1754,7 @@
         <v>877.80026847587499</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1666,7 +1768,7 @@
         <v>866.36298640916391</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1680,7 +1782,7 @@
         <v>914.94533629266607</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0</v>
       </c>
@@ -1694,7 +1796,7 @@
         <v>934.10562860636196</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1708,7 +1810,7 @@
         <v>963.30577568103581</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0</v>
       </c>
@@ -1722,7 +1824,7 @@
         <v>1009.978622961218</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32">
         <v>10006</v>
       </c>
@@ -1733,7 +1835,7 @@
         <v>1016.2353174818639</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C33">
         <v>10006</v>
       </c>
@@ -1750,16 +1852,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1779,10 +1881,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1796,10 +1898,10 @@
         <v>49.060136014729459</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1813,10 +1915,10 @@
         <v>78.239020069408426</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1830,10 +1932,10 @@
         <v>97.085850319654355</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1847,10 +1949,10 @@
         <v>154.10001968630769</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1865,7 +1967,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1879,10 +1981,10 @@
         <v>227.13261937529381</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1897,7 +1999,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1911,10 +2013,10 @@
         <v>314.52834662876018</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1928,10 +2030,10 @@
         <v>213.41807072994189</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1945,10 +2047,10 @@
         <v>252.25870843868259</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1962,10 +2064,10 @@
         <v>403.10503493295528</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1979,7 +2081,7 @@
         <v>447.33135477791137</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1993,7 +2095,7 @@
         <v>291.11942954348359</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2007,7 +2109,7 @@
         <v>336.9829138358196</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
@@ -2021,7 +2123,7 @@
         <v>508.9236504601148</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2035,7 +2137,7 @@
         <v>399.35197898651018</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
@@ -2049,7 +2151,7 @@
         <v>590.08243106062014</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2063,7 +2165,7 @@
         <v>434.0074039464817</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0</v>
       </c>
@@ -2077,7 +2179,7 @@
         <v>626.013077580821</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2091,7 +2193,7 @@
         <v>485.08400697994369</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0</v>
       </c>
@@ -2105,7 +2207,7 @@
         <v>722.66792489529678</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2119,7 +2221,7 @@
         <v>554.77867368491638</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0</v>
       </c>
@@ -2133,7 +2235,7 @@
         <v>783.36159507064929</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2147,7 +2249,7 @@
         <v>588.39837266751499</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0</v>
       </c>
@@ -2161,7 +2263,7 @@
         <v>869.81923818058647</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2175,7 +2277,7 @@
         <v>627.24439837062323</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0</v>
       </c>
@@ -2189,7 +2291,7 @@
         <v>939.61130482629176</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0</v>
       </c>
@@ -2203,7 +2305,7 @@
         <v>1003.127735351411</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30">
         <v>10007</v>
       </c>
@@ -2214,7 +2316,7 @@
         <v>1008.220064261781</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>10007</v>
       </c>
@@ -2223,6 +2325,3110 @@
       </c>
       <c r="F31">
         <v>677.31473806033716</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G105"/>
+  <sheetViews>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103:XFD103"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>457</v>
+      </c>
+      <c r="D2">
+        <v>66.162599516475865</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>525</v>
+      </c>
+      <c r="D3">
+        <v>120.23167392161901</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>1593</v>
+      </c>
+      <c r="D4">
+        <v>137.65680937297091</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1597</v>
+      </c>
+      <c r="D5">
+        <v>196.2374871661863</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>1832</v>
+      </c>
+      <c r="D6">
+        <v>167.25513186639631</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1849</v>
+      </c>
+      <c r="D7">
+        <v>235.25269585177779</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>3093</v>
+      </c>
+      <c r="D8">
+        <v>278.4751588580603</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>3097</v>
+      </c>
+      <c r="D9">
+        <v>354.13680950008592</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>3349</v>
+      </c>
+      <c r="D10">
+        <v>405.51430483115229</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>3381</v>
+      </c>
+      <c r="D11">
+        <v>326.40269100638642</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>4594</v>
+      </c>
+      <c r="D12">
+        <v>375.39831141650541</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>4596</v>
+      </c>
+      <c r="D13">
+        <v>450.5810249785456</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>4840</v>
+      </c>
+      <c r="D14">
+        <v>408.06752400658979</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>4949</v>
+      </c>
+      <c r="D15">
+        <v>550.33076928267667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>6092</v>
+      </c>
+      <c r="D16">
+        <v>484.74601484415939</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>6096</v>
+      </c>
+      <c r="D17">
+        <v>607.759945534498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>6340</v>
+      </c>
+      <c r="D18">
+        <v>530.58419727179944</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>6492</v>
+      </c>
+      <c r="D19">
+        <v>704.5783150767528</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <v>9093</v>
+      </c>
+      <c r="D20">
+        <v>638.62618442796838</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>9094</v>
+      </c>
+      <c r="D21">
+        <v>759.0310969123226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>9461</v>
+      </c>
+      <c r="D22">
+        <v>679.37902629740381</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>10593</v>
+      </c>
+      <c r="D23">
+        <v>723.47828989641175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>10595</v>
+      </c>
+      <c r="D24">
+        <v>921.38006513060839</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>10905</v>
+      </c>
+      <c r="D25">
+        <v>989.21445814913227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>10958</v>
+      </c>
+      <c r="D26">
+        <v>769.19238789820042</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>12093</v>
+      </c>
+      <c r="D27">
+        <v>860.74886373589618</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>12097</v>
+      </c>
+      <c r="D28">
+        <v>1116.817237053885</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>12335</v>
+      </c>
+      <c r="D29">
+        <v>1173.255793390508</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>12432</v>
+      </c>
+      <c r="D30">
+        <v>904.4809615430363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>13594</v>
+      </c>
+      <c r="D31">
+        <v>992.5343893953052</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>13594</v>
+      </c>
+      <c r="D32">
+        <v>1243.2397673891951</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>19</v>
+      </c>
+      <c r="C33">
+        <v>13858</v>
+      </c>
+      <c r="D33">
+        <v>1031.329377713756</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>13958</v>
+      </c>
+      <c r="D34">
+        <v>1332.741994782549</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>23</v>
+      </c>
+      <c r="C35">
+        <v>15093</v>
+      </c>
+      <c r="D35">
+        <v>1084.3913782498021</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>15095</v>
+      </c>
+      <c r="D36">
+        <v>1390.3232718700619</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>25</v>
+      </c>
+      <c r="C37">
+        <v>15397</v>
+      </c>
+      <c r="D37">
+        <v>1123.187929698244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <v>15408</v>
+      </c>
+      <c r="D38">
+        <v>1475.775709888235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>27</v>
+      </c>
+      <c r="C39">
+        <v>18093</v>
+      </c>
+      <c r="D39">
+        <v>1197.787344486386</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>15</v>
+      </c>
+      <c r="C40">
+        <v>18096</v>
+      </c>
+      <c r="D40">
+        <v>1536.4284366985789</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>17</v>
+      </c>
+      <c r="C41">
+        <v>18396</v>
+      </c>
+      <c r="D41">
+        <v>1613.4775316969781</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>29</v>
+      </c>
+      <c r="C42">
+        <v>19593</v>
+      </c>
+      <c r="D42">
+        <v>1283.750653578845</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>18</v>
+      </c>
+      <c r="C43">
+        <v>19596</v>
+      </c>
+      <c r="D43">
+        <v>1670.981785810246</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>22</v>
+      </c>
+      <c r="C44">
+        <v>20000</v>
+      </c>
+      <c r="D44">
+        <v>1782.7884839908529</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>21093</v>
+      </c>
+      <c r="D45">
+        <v>1367.5540241995279</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>28</v>
+      </c>
+      <c r="C46">
+        <v>21098</v>
+      </c>
+      <c r="D46">
+        <v>1854.746594939139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>21361</v>
+      </c>
+      <c r="D47">
+        <v>1401.1675060144969</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>16</v>
+      </c>
+      <c r="C48">
+        <v>21522</v>
+      </c>
+      <c r="D48">
+        <v>1969.9580793203691</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>21</v>
+      </c>
+      <c r="C49">
+        <v>22594</v>
+      </c>
+      <c r="D49">
+        <v>1497.534875034085</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>14</v>
+      </c>
+      <c r="C50">
+        <v>22596</v>
+      </c>
+      <c r="D50">
+        <v>2041.819064822487</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>24</v>
+      </c>
+      <c r="C51">
+        <v>22955</v>
+      </c>
+      <c r="D51">
+        <v>1539.448193944329</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>22961</v>
+      </c>
+      <c r="D52">
+        <v>2131.4943392105988</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>24094</v>
+      </c>
+      <c r="D53">
+        <v>1647.1212279207641</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>24097</v>
+      </c>
+      <c r="D54">
+        <v>2210.7885328420248</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>24488</v>
+      </c>
+      <c r="D55">
+        <v>1685.809346596423</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>27094</v>
+      </c>
+      <c r="D56">
+        <v>1736.9598422680781</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>26</v>
+      </c>
+      <c r="C57">
+        <v>27096</v>
+      </c>
+      <c r="D57">
+        <v>2332.0946117878352</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>27434</v>
+      </c>
+      <c r="D58">
+        <v>1773.7857059921059</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>13</v>
+      </c>
+      <c r="C59">
+        <v>28594</v>
+      </c>
+      <c r="D59">
+        <v>1852.643038645939</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>28596</v>
+      </c>
+      <c r="D60">
+        <v>2425.52801689127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>12</v>
+      </c>
+      <c r="C61">
+        <v>28863</v>
+      </c>
+      <c r="D61">
+        <v>2480.7726213307919</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>16</v>
+      </c>
+      <c r="C62">
+        <v>28958</v>
+      </c>
+      <c r="D62">
+        <v>1904.782676049882</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>19</v>
+      </c>
+      <c r="C63">
+        <v>30094</v>
+      </c>
+      <c r="D63">
+        <v>1997.355905885943</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>15</v>
+      </c>
+      <c r="C64">
+        <v>30098</v>
+      </c>
+      <c r="D64">
+        <v>2595.987777639758</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>20</v>
+      </c>
+      <c r="C65">
+        <v>30461</v>
+      </c>
+      <c r="D65">
+        <v>2686.43695472947</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>22</v>
+      </c>
+      <c r="C66">
+        <v>31594</v>
+      </c>
+      <c r="D66">
+        <v>2759.347731282211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>21</v>
+      </c>
+      <c r="C67">
+        <v>31594</v>
+      </c>
+      <c r="D67">
+        <v>2088.621751106592</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>23</v>
+      </c>
+      <c r="C68">
+        <v>31916</v>
+      </c>
+      <c r="D68">
+        <v>2127.5312004652651</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>24</v>
+      </c>
+      <c r="C69">
+        <v>33093</v>
+      </c>
+      <c r="D69">
+        <v>2168.5348392447459</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>27</v>
+      </c>
+      <c r="C70">
+        <v>33095</v>
+      </c>
+      <c r="D70">
+        <v>2869.0121619220959</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>11</v>
+      </c>
+      <c r="C71">
+        <v>33446</v>
+      </c>
+      <c r="D71">
+        <v>2217.655531446539</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>7</v>
+      </c>
+      <c r="C72">
+        <v>36094</v>
+      </c>
+      <c r="D72">
+        <v>2301.874772305523</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>29</v>
+      </c>
+      <c r="C73">
+        <v>36096</v>
+      </c>
+      <c r="D73">
+        <v>3017.1585462239691</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>28</v>
+      </c>
+      <c r="C74">
+        <v>36355</v>
+      </c>
+      <c r="D74">
+        <v>3073.6869188906762</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>36469</v>
+      </c>
+      <c r="D75">
+        <v>2352.877258716665</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>18</v>
+      </c>
+      <c r="C76">
+        <v>37594</v>
+      </c>
+      <c r="D76">
+        <v>3223.735289693273</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>9</v>
+      </c>
+      <c r="C77">
+        <v>37933</v>
+      </c>
+      <c r="D77">
+        <v>3311.022076111366</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <v>37949</v>
+      </c>
+      <c r="D78">
+        <v>2456.9345958414692</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79">
+        <v>39094</v>
+      </c>
+      <c r="D79">
+        <v>2501.0072842036452</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>14</v>
+      </c>
+      <c r="C80">
+        <v>39098</v>
+      </c>
+      <c r="D80">
+        <v>3376.7467853164098</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="C81">
+        <v>39376</v>
+      </c>
+      <c r="D81">
+        <v>2532.6831754403211</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>39483</v>
+      </c>
+      <c r="D82">
+        <v>3478.653883851508</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>11</v>
+      </c>
+      <c r="C83">
+        <v>40594</v>
+      </c>
+      <c r="D83">
+        <v>2564.257281089871</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>40596</v>
+      </c>
+      <c r="D84">
+        <v>3537.3363688420618</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>40917</v>
+      </c>
+      <c r="D85">
+        <v>3606.099384302674</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>13</v>
+      </c>
+      <c r="C86">
+        <v>42095</v>
+      </c>
+      <c r="D86">
+        <v>2625.6511015168981</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87">
+        <v>6</v>
+      </c>
+      <c r="C87">
+        <v>42096</v>
+      </c>
+      <c r="D87">
+        <v>3699.5793279267532</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>16</v>
+      </c>
+      <c r="C88">
+        <v>42467</v>
+      </c>
+      <c r="D88">
+        <v>2668.4177273476962</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89">
+        <v>8</v>
+      </c>
+      <c r="C89">
+        <v>42506</v>
+      </c>
+      <c r="D89">
+        <v>3803.2471099823128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>17</v>
+      </c>
+      <c r="C90">
+        <v>45094</v>
+      </c>
+      <c r="D90">
+        <v>2713.4421432201898</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91">
+        <v>12</v>
+      </c>
+      <c r="C91">
+        <v>45095</v>
+      </c>
+      <c r="D91">
+        <v>3905.9957215921931</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>22</v>
+      </c>
+      <c r="C92">
+        <v>45487</v>
+      </c>
+      <c r="D92">
+        <v>2765.4516924306372</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>23</v>
+      </c>
+      <c r="C93">
+        <v>46594</v>
+      </c>
+      <c r="D93">
+        <v>2808.3996724303888</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94">
+        <v>20</v>
+      </c>
+      <c r="C94">
+        <v>46596</v>
+      </c>
+      <c r="D94">
+        <v>4083.6287377338399</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95">
+        <v>28</v>
+      </c>
+      <c r="C95">
+        <v>46875</v>
+      </c>
+      <c r="D95">
+        <v>4137.1299846646843</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>26</v>
+      </c>
+      <c r="C96">
+        <v>46974</v>
+      </c>
+      <c r="D96">
+        <v>2851.1804551971868</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>21</v>
+      </c>
+      <c r="C97">
+        <v>48094</v>
+      </c>
+      <c r="D97">
+        <v>2941.340077486112</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <v>29</v>
+      </c>
+      <c r="C98">
+        <v>48098</v>
+      </c>
+      <c r="D98">
+        <v>4189.467873773101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>9</v>
+      </c>
+      <c r="C99">
+        <v>48502</v>
+      </c>
+      <c r="D99">
+        <v>3006.5268890156422</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>5</v>
+      </c>
+      <c r="C100">
+        <v>49594</v>
+      </c>
+      <c r="D100">
+        <v>3073.2681502187629</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101">
+        <v>18</v>
+      </c>
+      <c r="C101">
+        <v>49595</v>
+      </c>
+      <c r="D101">
+        <v>4326.5833958517323</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <v>24</v>
+      </c>
+      <c r="C102">
+        <v>49926</v>
+      </c>
+      <c r="D102">
+        <v>4402.435280349885</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>0</v>
+      </c>
+      <c r="B103">
+        <v>19</v>
+      </c>
+      <c r="C103">
+        <v>49964</v>
+      </c>
+      <c r="D103">
+        <v>3131.396161609814</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C104">
+        <v>50013</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>4407.5875557542186</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C105">
+        <v>50013</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>3136.55601253432</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G110"/>
+  <sheetViews>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108:XFD108"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>406</v>
+      </c>
+      <c r="D2">
+        <v>45.857109001933793</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>424</v>
+      </c>
+      <c r="D3">
+        <v>69.742853474840828</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>1593</v>
+      </c>
+      <c r="D4">
+        <v>100.92571295185761</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>1598</v>
+      </c>
+      <c r="D5">
+        <v>167.21601798107361</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>1847</v>
+      </c>
+      <c r="D6">
+        <v>224.74679136048459</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>1875</v>
+      </c>
+      <c r="D7">
+        <v>130.4205055410566</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>2030</v>
+      </c>
+      <c r="D8">
+        <v>261.71592001988682</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>3093</v>
+      </c>
+      <c r="D9">
+        <v>369.64116190608922</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>3094</v>
+      </c>
+      <c r="D10">
+        <v>200.56893540122081</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>3395</v>
+      </c>
+      <c r="D11">
+        <v>245.32912411175289</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>3535</v>
+      </c>
+      <c r="D12">
+        <v>496.03443736919098</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>4594</v>
+      </c>
+      <c r="D13">
+        <v>314.70493680692198</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>4597</v>
+      </c>
+      <c r="D14">
+        <v>577.30271351326758</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>4923</v>
+      </c>
+      <c r="D15">
+        <v>368.73995113933438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>4980</v>
+      </c>
+      <c r="D16">
+        <v>683.40081289480224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>6093</v>
+      </c>
+      <c r="D17">
+        <v>430.3951332086682</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>6097</v>
+      </c>
+      <c r="D18">
+        <v>787.14222462664918</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>6361</v>
+      </c>
+      <c r="D19">
+        <v>465.17386111400839</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>6388</v>
+      </c>
+      <c r="D20">
+        <v>843.50077760694523</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>9093</v>
+      </c>
+      <c r="D21">
+        <v>523.36008350735415</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>9094</v>
+      </c>
+      <c r="D22">
+        <v>906.21503357304857</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>9342</v>
+      </c>
+      <c r="D23">
+        <v>558.00993073899065</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>9504</v>
+      </c>
+      <c r="D24">
+        <v>1025.569525512255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <v>10593</v>
+      </c>
+      <c r="D25">
+        <v>594.67529409219048</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>10598</v>
+      </c>
+      <c r="D26">
+        <v>1137.3094920210069</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>11008</v>
+      </c>
+      <c r="D27">
+        <v>1256.5318189675211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>12095</v>
+      </c>
+      <c r="D28">
+        <v>661.05068512836328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>12096</v>
+      </c>
+      <c r="D29">
+        <v>1337.939202266391</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>12408</v>
+      </c>
+      <c r="D30">
+        <v>698.76835247855445</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>12501</v>
+      </c>
+      <c r="D31">
+        <v>1455.9664592084259</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>17</v>
+      </c>
+      <c r="C32">
+        <v>13594</v>
+      </c>
+      <c r="D32">
+        <v>797.77863110827559</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>18</v>
+      </c>
+      <c r="C33">
+        <v>13595</v>
+      </c>
+      <c r="D33">
+        <v>1588.225726586835</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>17</v>
+      </c>
+      <c r="C34">
+        <v>13740</v>
+      </c>
+      <c r="D34">
+        <v>821.28528708778254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>26</v>
+      </c>
+      <c r="C35">
+        <v>13864</v>
+      </c>
+      <c r="D35">
+        <v>1641.57118401971</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>15094</v>
+      </c>
+      <c r="D36">
+        <v>879.46640975772823</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>28</v>
+      </c>
+      <c r="C37">
+        <v>15096</v>
+      </c>
+      <c r="D37">
+        <v>1791.577770172041</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>16</v>
+      </c>
+      <c r="C38">
+        <v>15449</v>
+      </c>
+      <c r="D38">
+        <v>931.36532486909016</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>26</v>
+      </c>
+      <c r="C39">
+        <v>18094</v>
+      </c>
+      <c r="D39">
+        <v>1001.195884203011</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>17</v>
+      </c>
+      <c r="C40">
+        <v>18097</v>
+      </c>
+      <c r="D40">
+        <v>1918.041846348026</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>27</v>
+      </c>
+      <c r="C41">
+        <v>18375</v>
+      </c>
+      <c r="D41">
+        <v>1034.7719564752781</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>18416</v>
+      </c>
+      <c r="D42">
+        <v>2001.557924723058</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>19594</v>
+      </c>
+      <c r="D43">
+        <v>1084.6980891147809</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>19</v>
+      </c>
+      <c r="C44">
+        <v>19596</v>
+      </c>
+      <c r="D44">
+        <v>2096.446545331014</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>19949</v>
+      </c>
+      <c r="D45">
+        <v>1139.950942241486</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>20012</v>
+      </c>
+      <c r="D46">
+        <v>2219.8170881974229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>21094</v>
+      </c>
+      <c r="D47">
+        <v>1202.8546196749739</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>17</v>
+      </c>
+      <c r="C48">
+        <v>21095</v>
+      </c>
+      <c r="D48">
+        <v>2315.4268824603341</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>23</v>
+      </c>
+      <c r="C49">
+        <v>21410</v>
+      </c>
+      <c r="D49">
+        <v>2385.2869865082139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>12</v>
+      </c>
+      <c r="C50">
+        <v>22593</v>
+      </c>
+      <c r="D50">
+        <v>1260.055659868827</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>22596</v>
+      </c>
+      <c r="D51">
+        <v>2487.8934443562771</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>15</v>
+      </c>
+      <c r="C52">
+        <v>22999</v>
+      </c>
+      <c r="D52">
+        <v>1324.3004935590941</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>29</v>
+      </c>
+      <c r="C53">
+        <v>23026</v>
+      </c>
+      <c r="D53">
+        <v>2613.3501282759862</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>14</v>
+      </c>
+      <c r="C54">
+        <v>24094</v>
+      </c>
+      <c r="D54">
+        <v>1370.5592913577559</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>21</v>
+      </c>
+      <c r="C55">
+        <v>24098</v>
+      </c>
+      <c r="D55">
+        <v>2667.8025149058599</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>22</v>
+      </c>
+      <c r="C56">
+        <v>24361</v>
+      </c>
+      <c r="D56">
+        <v>2713.921338315859</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>9</v>
+      </c>
+      <c r="C57">
+        <v>24411</v>
+      </c>
+      <c r="D57">
+        <v>1417.5858805377029</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>27094</v>
+      </c>
+      <c r="D58">
+        <v>1498.280643199718</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>16</v>
+      </c>
+      <c r="C59">
+        <v>27096</v>
+      </c>
+      <c r="D59">
+        <v>2791.8981051215351</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>27451</v>
+      </c>
+      <c r="D60">
+        <v>1547.2654534352409</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>28</v>
+      </c>
+      <c r="C61">
+        <v>27520</v>
+      </c>
+      <c r="D61">
+        <v>2897.883666795899</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>28594</v>
+      </c>
+      <c r="D62">
+        <v>1618.0479159077299</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+      <c r="C63">
+        <v>28597</v>
+      </c>
+      <c r="D63">
+        <v>3031.4338106734199</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>28925</v>
+      </c>
+      <c r="D64">
+        <v>3112.6342753844192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>21</v>
+      </c>
+      <c r="C65">
+        <v>30094</v>
+      </c>
+      <c r="D65">
+        <v>1710.2068260501201</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>11</v>
+      </c>
+      <c r="C66">
+        <v>30097</v>
+      </c>
+      <c r="D66">
+        <v>3197.9869210356151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>7</v>
+      </c>
+      <c r="C67">
+        <v>30416</v>
+      </c>
+      <c r="D67">
+        <v>1750.834192370103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>30421</v>
+      </c>
+      <c r="D68">
+        <v>3284.56319246261</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>12</v>
+      </c>
+      <c r="C69">
+        <v>31594</v>
+      </c>
+      <c r="D69">
+        <v>1881.8173049274619</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>25</v>
+      </c>
+      <c r="C70">
+        <v>31597</v>
+      </c>
+      <c r="D70">
+        <v>3394.536994102697</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>11</v>
+      </c>
+      <c r="C71">
+        <v>31911</v>
+      </c>
+      <c r="D71">
+        <v>3487.107793941585</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>15</v>
+      </c>
+      <c r="C72">
+        <v>32001</v>
+      </c>
+      <c r="D72">
+        <v>1940.95084857951</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>13</v>
+      </c>
+      <c r="C73">
+        <v>33094</v>
+      </c>
+      <c r="D73">
+        <v>2012.9173574185611</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>13</v>
+      </c>
+      <c r="C74">
+        <v>33098</v>
+      </c>
+      <c r="D74">
+        <v>3623.8907476063059</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>15</v>
+      </c>
+      <c r="C75">
+        <v>33528</v>
+      </c>
+      <c r="D75">
+        <v>3696.8488783128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>17</v>
+      </c>
+      <c r="C76">
+        <v>36094</v>
+      </c>
+      <c r="D76">
+        <v>2087.1369953729072</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>29</v>
+      </c>
+      <c r="C77">
+        <v>36096</v>
+      </c>
+      <c r="D77">
+        <v>3783.226969459301</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>14</v>
+      </c>
+      <c r="C78">
+        <v>36406</v>
+      </c>
+      <c r="D78">
+        <v>3859.1050774089381</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>36451</v>
+      </c>
+      <c r="D79">
+        <v>2149.007744961762</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>16</v>
+      </c>
+      <c r="C80">
+        <v>37594</v>
+      </c>
+      <c r="D80">
+        <v>2220.3284448815339</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>29</v>
+      </c>
+      <c r="C81">
+        <v>37595</v>
+      </c>
+      <c r="D81">
+        <v>3944.212594600077</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>37868</v>
+      </c>
+      <c r="D82">
+        <v>2270.079746578685</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>13</v>
+      </c>
+      <c r="C83">
+        <v>39094</v>
+      </c>
+      <c r="D83">
+        <v>2329.181717994712</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84">
+        <v>8</v>
+      </c>
+      <c r="C84">
+        <v>39098</v>
+      </c>
+      <c r="D84">
+        <v>4056.4418399714859</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>39372</v>
+      </c>
+      <c r="D85">
+        <v>4110.8009370546442</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>21</v>
+      </c>
+      <c r="C86">
+        <v>39374</v>
+      </c>
+      <c r="D86">
+        <v>2369.8605439202502</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>13</v>
+      </c>
+      <c r="C87">
+        <v>40595</v>
+      </c>
+      <c r="D87">
+        <v>2401.436894669449</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88">
+        <v>21</v>
+      </c>
+      <c r="C88">
+        <v>40596</v>
+      </c>
+      <c r="D88">
+        <v>4213.7146855741803</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>20</v>
+      </c>
+      <c r="C89">
+        <v>40889</v>
+      </c>
+      <c r="D89">
+        <v>2428.1220351186298</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>25</v>
+      </c>
+      <c r="C90">
+        <v>42094</v>
+      </c>
+      <c r="D90">
+        <v>2517.9708905120829</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91">
+        <v>5</v>
+      </c>
+      <c r="C91">
+        <v>42097</v>
+      </c>
+      <c r="D91">
+        <v>4349.5658206714506</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>42397</v>
+      </c>
+      <c r="D92">
+        <v>4421.2918145223512</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>42530</v>
+      </c>
+      <c r="D93">
+        <v>2572.0823804911288</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>10</v>
+      </c>
+      <c r="C94">
+        <v>45094</v>
+      </c>
+      <c r="D94">
+        <v>2640.8717353048919</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95">
+        <v>6</v>
+      </c>
+      <c r="C95">
+        <v>45095</v>
+      </c>
+      <c r="D95">
+        <v>4513.6499831291922</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="C96">
+        <v>45407</v>
+      </c>
+      <c r="D96">
+        <v>4587.6505413048762</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>16</v>
+      </c>
+      <c r="C97">
+        <v>45510</v>
+      </c>
+      <c r="D97">
+        <v>2678.5294152327729</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>9</v>
+      </c>
+      <c r="C98">
+        <v>46595</v>
+      </c>
+      <c r="D98">
+        <v>2720.2807174265581</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99">
+        <v>17</v>
+      </c>
+      <c r="C99">
+        <v>46598</v>
+      </c>
+      <c r="D99">
+        <v>4662.7679825509194</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>46985</v>
+      </c>
+      <c r="D100">
+        <v>4762.4111634448354</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>26</v>
+      </c>
+      <c r="C101">
+        <v>46988</v>
+      </c>
+      <c r="D101">
+        <v>2781.489975902311</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>0</v>
+      </c>
+      <c r="B102">
+        <v>14</v>
+      </c>
+      <c r="C102">
+        <v>48096</v>
+      </c>
+      <c r="D102">
+        <v>2866.201176818081</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103">
+        <v>20</v>
+      </c>
+      <c r="C103">
+        <v>48099</v>
+      </c>
+      <c r="D103">
+        <v>4918.8323952129449</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>0</v>
+      </c>
+      <c r="B104">
+        <v>14</v>
+      </c>
+      <c r="C104">
+        <v>48285</v>
+      </c>
+      <c r="D104">
+        <v>2894.7943023458001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105">
+        <v>14</v>
+      </c>
+      <c r="C105">
+        <v>48533</v>
+      </c>
+      <c r="D105">
+        <v>4980.5110832535929</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>0</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106">
+        <v>49594</v>
+      </c>
+      <c r="D106">
+        <v>2936.5618596496729</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107">
+        <v>22</v>
+      </c>
+      <c r="C107">
+        <v>49598</v>
+      </c>
+      <c r="D107">
+        <v>5031.9615468031552</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108">
+        <v>8</v>
+      </c>
+      <c r="C108">
+        <v>49934</v>
+      </c>
+      <c r="D108">
+        <v>5118.3806072650477</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C109">
+        <v>50014</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>5124.5452462235253</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C110">
+        <v>50014</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>2996.953708268074</v>
       </c>
     </row>
   </sheetData>
